--- a/Datas/TbCharacter.xlsx
+++ b/Datas/TbCharacter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SunHeSLGConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148B41DC-2AAA-422C-BAFC-E77C93AA2862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B69389C-D0B8-49DA-A0F4-CA67BEFA8CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6B893BFF-8B49-4776-9BF8-0FE98C6F7D45}"/>
   </bookViews>
@@ -596,7 +596,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E6" sqref="E6:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,7 +766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5">
         <v>1001</v>
@@ -777,16 +777,36 @@
       <c r="D6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
+      <c r="E6" s="9">
+        <v>22</v>
+      </c>
+      <c r="F6" s="9">
+        <v>6</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>5</v>
+      </c>
+      <c r="I6" s="9">
+        <v>7</v>
+      </c>
+      <c r="J6" s="9">
+        <v>5</v>
+      </c>
+      <c r="K6" s="9">
+        <v>5</v>
+      </c>
+      <c r="L6" s="9">
+        <v>3</v>
+      </c>
+      <c r="M6" s="9">
+        <v>4</v>
+      </c>
+      <c r="N6" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H10" s="3"/>

--- a/Datas/TbCharacter.xlsx
+++ b/Datas/TbCharacter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SunHeSLGConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B69389C-D0B8-49DA-A0F4-CA67BEFA8CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F29746-353D-45FD-B0B2-04CE31E2E5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6B893BFF-8B49-4776-9BF8-0FE98C6F7D45}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t>##var</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Bld</t>
   </si>
   <si>
-    <t>Mov</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -109,13 +106,31 @@
   </si>
   <si>
     <t>TestChar2</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>FEMALE</t>
+  </si>
+  <si>
+    <t>SLG.Gender</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>CapFix</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +171,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -175,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -235,6 +257,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -242,7 +310,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -273,7 +341,41 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -593,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A985CA30-13CD-475F-B500-C4593B7E58BA}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:AG13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:N6"/>
+      <selection activeCell="AH6" sqref="AH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,24 +706,40 @@
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="4.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -630,19 +748,44 @@
         <v>1</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -655,175 +798,385 @@
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="6" t="s">
-        <v>18</v>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG3" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="11"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="7"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="7"/>
+      <c r="M4" s="1"/>
       <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
     </row>
-    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5">
         <v>1000</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="E5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="9">
         <v>22</v>
       </c>
-      <c r="F5" s="9">
+      <c r="G5" s="9">
         <v>6</v>
       </c>
-      <c r="G5" s="9">
-        <v>0</v>
-      </c>
       <c r="H5" s="9">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
         <v>5</v>
       </c>
-      <c r="I5" s="9">
+      <c r="J5" s="9">
         <v>7</v>
-      </c>
-      <c r="J5" s="9">
-        <v>5</v>
       </c>
       <c r="K5" s="9">
         <v>5</v>
       </c>
       <c r="L5" s="9">
+        <v>5</v>
+      </c>
+      <c r="M5" s="9">
         <v>3</v>
       </c>
-      <c r="M5" s="9">
+      <c r="N5" s="9">
         <v>4</v>
       </c>
-      <c r="N5" s="10">
-        <v>4</v>
+      <c r="O5" s="10"/>
+      <c r="P5" s="14">
+        <v>60</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>35</v>
+      </c>
+      <c r="R5" s="14">
+        <v>20</v>
+      </c>
+      <c r="S5" s="14">
+        <v>45</v>
+      </c>
+      <c r="T5" s="14">
+        <v>50</v>
+      </c>
+      <c r="U5" s="14">
+        <v>40</v>
+      </c>
+      <c r="V5" s="14">
+        <v>25</v>
+      </c>
+      <c r="W5" s="14">
+        <v>25</v>
+      </c>
+      <c r="X5" s="14">
+        <v>5</v>
+      </c>
+      <c r="Y5" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="14">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="14">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5">
         <v>1001</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="9">
         <v>22</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="9">
-        <v>22</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="G6" s="9">
         <v>6</v>
       </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
       <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
         <v>5</v>
       </c>
-      <c r="I6" s="9">
+      <c r="J6" s="9">
         <v>7</v>
-      </c>
-      <c r="J6" s="9">
-        <v>5</v>
       </c>
       <c r="K6" s="9">
         <v>5</v>
       </c>
       <c r="L6" s="9">
+        <v>5</v>
+      </c>
+      <c r="M6" s="9">
         <v>3</v>
       </c>
-      <c r="M6" s="9">
+      <c r="N6" s="9">
         <v>4</v>
       </c>
-      <c r="N6" s="10">
-        <v>4</v>
+      <c r="O6" s="10"/>
+      <c r="P6" s="14">
+        <v>60</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>35</v>
+      </c>
+      <c r="R6" s="14">
+        <v>20</v>
+      </c>
+      <c r="S6" s="14">
+        <v>45</v>
+      </c>
+      <c r="T6" s="14">
+        <v>50</v>
+      </c>
+      <c r="U6" s="14">
+        <v>40</v>
+      </c>
+      <c r="V6" s="14">
+        <v>25</v>
+      </c>
+      <c r="W6" s="14">
+        <v>25</v>
+      </c>
+      <c r="X6" s="14">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="14">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="14">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H10" s="3"/>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H11" s="3"/>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H12" s="3"/>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H13" s="3"/>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="I13" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
+  <mergeCells count="6">
+    <mergeCell ref="Y1:AG1"/>
+    <mergeCell ref="Y2:AG2"/>
+    <mergeCell ref="F1:O1"/>
+    <mergeCell ref="F2:O2"/>
+    <mergeCell ref="P1:X1"/>
+    <mergeCell ref="P2:X2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
